--- a/quanlythuvien/data/List_NhanVien.xlsx
+++ b/quanlythuvien/data/List_NhanVien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\New folder (2)\mini-library-manager\quanlythuvien\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF37B9-0B16-4CCE-A92D-52E01D01B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8CD1B-96A2-4BB2-85A5-DFB37AEFD078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DFCDBD6-3BA2-458F-9082-1DA170B60CF4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
   <si>
     <t>username</t>
   </si>
@@ -575,6 +575,90 @@
   </si>
   <si>
     <t>Bien Yen Mai</t>
+  </si>
+  <si>
+    <t>22/05/2003 16:14:56</t>
+  </si>
+  <si>
+    <t>26/02/1995 01:30:44</t>
+  </si>
+  <si>
+    <t>22/03/2003 23:40:50</t>
+  </si>
+  <si>
+    <t>23/12/1989 16:12:02</t>
+  </si>
+  <si>
+    <t>16/12/1988 15:57:27</t>
+  </si>
+  <si>
+    <t>20/05/1997 00:11:15</t>
+  </si>
+  <si>
+    <t>31/01/1984 16:49:08</t>
+  </si>
+  <si>
+    <t>17/04/2009 06:56:35</t>
+  </si>
+  <si>
+    <t>21/09/2007 04:10:03</t>
+  </si>
+  <si>
+    <t>29/06/1998 15:46:11</t>
+  </si>
+  <si>
+    <t>19/05/1999 20:09:42</t>
+  </si>
+  <si>
+    <t>29/01/2001 18:05:44</t>
+  </si>
+  <si>
+    <t>26/10/2004 15:06:50</t>
+  </si>
+  <si>
+    <t>14/03/2001 04:22:28</t>
+  </si>
+  <si>
+    <t>27/12/1991 09:56:39</t>
+  </si>
+  <si>
+    <t>30/05/2001 21:58:47</t>
+  </si>
+  <si>
+    <t>29/11/2006 03:42:38</t>
+  </si>
+  <si>
+    <t>18/03/2001 09:24:04</t>
+  </si>
+  <si>
+    <t>31/03/1989 05:52:15</t>
+  </si>
+  <si>
+    <t>14/03/2007 15:43:19</t>
+  </si>
+  <si>
+    <t>14/10/1980 19:09:13</t>
+  </si>
+  <si>
+    <t>19/09/1981 11:34:08</t>
+  </si>
+  <si>
+    <t>23/05/1992 04:35:42</t>
+  </si>
+  <si>
+    <t>22/11/1986 16:21:20</t>
+  </si>
+  <si>
+    <t>21/12/1984 06:57:50</t>
+  </si>
+  <si>
+    <t>19/11/1985 20:14:06</t>
+  </si>
+  <si>
+    <t>31/03/2007 23:23:00</t>
+  </si>
+  <si>
+    <t>15/05/1982 07:03:06</t>
   </si>
 </sst>
 </file>
@@ -960,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B5E028-7850-4896-8815-10477EF96103}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,11 +1094,11 @@
       <c r="C2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="1">
-        <v>34756.063006772791</v>
-      </c>
-      <c r="E2" s="1">
-        <v>37763.677033907348</v>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1036,11 +1120,11 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1">
-        <v>32865.675020095645</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37702.986687902623</v>
+      <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -1063,10 +1147,10 @@
         <v>152</v>
       </c>
       <c r="D4" s="1">
-        <v>31789.140859453164</v>
+        <v>38450.662280092591</v>
       </c>
       <c r="E4" s="1">
-        <v>38568.662285206476</v>
+        <v>32112.140856481481</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -1089,10 +1173,10 @@
         <v>153</v>
       </c>
       <c r="D5" s="1">
-        <v>38116.167275617947</v>
+        <v>40034.467650462961</v>
       </c>
       <c r="E5" s="1">
-        <v>40064.467645069162</v>
+        <v>38235.167280092595</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1115,10 +1199,10 @@
         <v>154</v>
       </c>
       <c r="D6" s="1">
-        <v>38782.635128055095</v>
-      </c>
-      <c r="E6" s="1">
-        <v>32493.664897931052</v>
+        <v>38871.635127314818</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
@@ -1140,11 +1224,11 @@
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="1">
-        <v>33697.970008867349</v>
+      <c r="D7" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E7" s="1">
-        <v>35570.007817432837</v>
+        <v>33667.970011574071</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
@@ -1167,10 +1251,10 @@
         <v>156</v>
       </c>
       <c r="D8" s="1">
-        <v>30712.700784593322</v>
-      </c>
-      <c r="E8" s="1">
-        <v>33367.002915081524</v>
+        <v>33486.002916666665</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
@@ -1192,11 +1276,11 @@
       <c r="C9" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="1">
-        <v>39346.173643364629</v>
-      </c>
-      <c r="E9" s="1">
-        <v>39920.289296398128</v>
+      <c r="D9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>43</v>
@@ -1218,11 +1302,11 @@
       <c r="C10" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="1">
-        <v>34003.860383394858</v>
+      <c r="D10" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E10" s="1">
-        <v>35975.657075167008</v>
+        <v>34030.860381944447</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>47</v>
@@ -1244,11 +1328,11 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="1">
-        <v>33187.207598640693</v>
+      <c r="D11" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E11" s="1">
-        <v>36299.840063996147</v>
+        <v>33157.207604166666</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
@@ -1271,10 +1355,10 @@
         <v>160</v>
       </c>
       <c r="D12" s="1">
-        <v>36920.753977813278</v>
-      </c>
-      <c r="E12" s="1">
-        <v>39484.411772313149</v>
+        <v>39601.411770833336</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>57</v>
@@ -1296,11 +1380,11 @@
       <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="1">
-        <v>38286.629747644089</v>
+      <c r="D13" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E13" s="1">
-        <v>33580.250334324264</v>
+        <v>33462.250335648147</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
@@ -1322,11 +1406,11 @@
       <c r="C14" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="1">
-        <v>32275.242928666485</v>
+      <c r="D14" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E14" s="1">
-        <v>36964.182268435543</v>
+        <v>32482.242928240739</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
@@ -1349,10 +1433,10 @@
         <v>163</v>
       </c>
       <c r="D15" s="1">
-        <v>38728.988539319544</v>
-      </c>
-      <c r="E15" s="1">
-        <v>33599.414339558702</v>
+        <v>39022.988541666666</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>69</v>
@@ -1374,11 +1458,11 @@
       <c r="C16" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="1">
-        <v>37041.915826429911</v>
+      <c r="D16" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E16" s="1">
-        <v>30042.828015819152</v>
+        <v>29955.828020833334</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>74</v>
@@ -1400,11 +1484,11 @@
       <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="1">
-        <v>39050.15461172405</v>
-      </c>
-      <c r="E17" s="1">
-        <v>36968.391707661576</v>
+      <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>79</v>
@@ -1427,10 +1511,10 @@
         <v>166</v>
       </c>
       <c r="D18" s="1">
-        <v>31688.266134136509</v>
+        <v>31935.560636574075</v>
       </c>
       <c r="E18" s="1">
-        <v>31964.560635233487</v>
+        <v>31481.266134259258</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
@@ -1452,11 +1536,11 @@
       <c r="C19" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="1">
-        <v>31935.750339830018</v>
+      <c r="D19" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E19" s="1">
-        <v>32598.244618819575</v>
+        <v>31964.750335648147</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -1479,10 +1563,10 @@
         <v>168</v>
       </c>
       <c r="D20" s="1">
-        <v>31809.139474054042</v>
+        <v>34737.409259259257</v>
       </c>
       <c r="E20" s="1">
-        <v>34882.409263680434</v>
+        <v>31779.139479166668</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>94</v>
@@ -1505,10 +1589,10 @@
         <v>169</v>
       </c>
       <c r="D21" s="1">
-        <v>37165.005113243504</v>
+        <v>36901.005115740743</v>
       </c>
       <c r="E21" s="1">
-        <v>32275.167312948655</v>
+        <v>32482.167314814815</v>
       </c>
       <c r="F21" t="s">
         <v>99</v>
@@ -1530,11 +1614,11 @@
       <c r="C22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1">
-        <v>37987.047086811654</v>
+      <c r="D22" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E22" s="1">
-        <v>39155.655083864054</v>
+        <v>37987.047083333331</v>
       </c>
       <c r="F22" t="s">
         <v>104</v>
@@ -1557,10 +1641,10 @@
         <v>171</v>
       </c>
       <c r="D23" s="1">
-        <v>29508.798072613237</v>
-      </c>
-      <c r="E23" s="1">
-        <v>40487.062657330658</v>
+        <v>40309.062662037039</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="F23" t="s">
         <v>109</v>
@@ -1583,10 +1667,10 @@
         <v>172</v>
       </c>
       <c r="D24" s="1">
-        <v>35004.458551061412</v>
-      </c>
-      <c r="E24" s="1">
-        <v>29848.482035912155</v>
+        <v>34710.458553240744</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F24" t="s">
         <v>113</v>
@@ -1608,11 +1692,11 @@
       <c r="C25" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="1">
-        <v>32912.160634762848</v>
+      <c r="D25" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E25" s="1">
-        <v>33747.191453671818</v>
+        <v>33087.160636574074</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -1634,11 +1718,11 @@
       <c r="C26" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="1">
-        <v>31738.681478961247</v>
-      </c>
-      <c r="E26" s="1">
-        <v>31037.290166891013</v>
+      <c r="D26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F26" t="s">
         <v>121</v>
@@ -1661,10 +1745,10 @@
         <v>175</v>
       </c>
       <c r="D27" s="1">
-        <v>31632.52819211801</v>
+        <v>34157.228796296295</v>
       </c>
       <c r="E27" s="1">
-        <v>34157.228793446309</v>
+        <v>31632.528194444443</v>
       </c>
       <c r="F27" t="s">
         <v>126</v>
@@ -1686,11 +1770,11 @@
       <c r="C28" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="1">
-        <v>31370.843125015344</v>
+      <c r="D28" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E28" s="1">
-        <v>30082.462522037262</v>
+        <v>30260.462523148148</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -1713,10 +1797,10 @@
         <v>177</v>
       </c>
       <c r="D29" s="1">
-        <v>33636.595762728211</v>
+        <v>39029.950243055559</v>
       </c>
       <c r="E29" s="1">
-        <v>38940.950244610882</v>
+        <v>33636.595763888887</v>
       </c>
       <c r="F29" t="s">
         <v>136</v>
@@ -1738,11 +1822,11 @@
       <c r="C30" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="1">
-        <v>36567.341342772714</v>
+      <c r="D30" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E30" s="1">
-        <v>39172.974309953337</v>
+        <v>36832.34134259259</v>
       </c>
       <c r="F30" t="s">
         <v>140</v>
@@ -1765,10 +1849,10 @@
         <v>179</v>
       </c>
       <c r="D31" s="1">
-        <v>34672.895023204088</v>
-      </c>
-      <c r="E31" s="1">
-        <v>30086.293817403126</v>
+        <v>34436.89502314815</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="F31" t="s">
         <v>144</v>

--- a/quanlythuvien/data/List_NhanVien.xlsx
+++ b/quanlythuvien/data/List_NhanVien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\New folder (2)\mini-library-manager\quanlythuvien\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest1\Desktop\cn\do an oop\mini-library-manager\quanlythuvien\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8CD1B-96A2-4BB2-85A5-DFB37AEFD078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137B4A1-FE22-463B-81CA-22EB15EF0476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DFCDBD6-3BA2-458F-9082-1DA170B60CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3DFCDBD6-3BA2-458F-9082-1DA170B60CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="List_NhanVien" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
   <si>
     <t>username</t>
   </si>
@@ -659,6 +658,9 @@
   </si>
   <si>
     <t>15/05/1982 07:03:06</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1042,825 +1044,918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B5E028-7850-4896-8815-10477EF96103}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>38450.662280092591</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>32112.140856481481</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>40034.467650462961</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>38235.167280092595</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>38871.635127314818</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>33667.970011574071</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>33486.002916666665</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>34030.860381944447</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>33157.207604166666</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>39601.411770833336</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>33462.250335648147</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>32482.242928240739</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>39022.988541666666</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>29955.828020833334</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>31935.560636574075</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>31481.266134259258</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>84</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>31964.750335648147</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>34737.409259259257</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>31779.139479166668</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>36901.005115740743</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>32482.167314814815</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>99</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>100</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>37987.047083333331</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>105</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>40309.062662037039</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>34710.458553240744</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>113</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>114</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>33087.160636574074</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>117</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>118</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>34157.228796296295</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>31632.528194444443</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>126</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>30260.462523148148</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>132</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>39029.950243055559</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>33636.595763888887</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>136</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>137</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>36832.34134259259</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>140</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>141</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>34436.89502314815</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>144</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>145</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>146</v>
       </c>
     </row>

--- a/quanlythuvien/data/List_NhanVien.xlsx
+++ b/quanlythuvien/data/List_NhanVien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest1\Desktop\cn\do an oop\mini-library-manager\quanlythuvien\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\New folder (2)\mini-library-manager\quanlythuvien\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137B4A1-FE22-463B-81CA-22EB15EF0476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEAC3E-729B-45F9-A79C-66CEB857A8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3DFCDBD6-3BA2-458F-9082-1DA170B60CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DFCDBD6-3BA2-458F-9082-1DA170B60CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="List_NhanVien" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="271">
   <si>
     <t>username</t>
   </si>
@@ -661,6 +661,192 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>catruc</t>
+  </si>
+  <si>
+    <t>14:35:52~21:10:44|05:26:55~20:31:13|00:05:58~07:26:00|03:23:47~17:48:43|03:36:38~15:07:28|06:07:04~12:50:25|20:42:39~21:25:33</t>
+  </si>
+  <si>
+    <t>05:26:55~20:31:13|00:05:58~07:26:00|03:23:47~17:48:43|03:36:38~15:07:28|06:07:04~12:50:25|20:42:39~21:25:33|07:57:17~13:53:59</t>
+  </si>
+  <si>
+    <t>00:05:58~07:26:00|03:23:47~17:48:43|03:36:38~15:07:28|06:07:04~12:50:25|20:42:39~21:25:33|07:57:17~13:53:59|15:07:03~22:57:12</t>
+  </si>
+  <si>
+    <t>03:23:47~17:48:43|03:36:38~15:07:28|06:07:04~12:50:25|20:42:39~21:25:33|07:57:17~13:53:59|15:07:03~22:57:12|00:18:16~07:11:29</t>
+  </si>
+  <si>
+    <t>03:36:38~15:07:28|06:07:04~12:50:25|20:42:39~21:25:33|07:57:17~13:53:59|15:07:03~22:57:12|00:18:16~07:11:29|02:41:08~14:36:32</t>
+  </si>
+  <si>
+    <t>06:07:04~12:50:25|20:42:39~21:25:33|07:57:17~13:53:59|15:07:03~22:57:12|00:18:16~07:11:29|02:41:08~14:36:32|11:47:53~19:20:39</t>
+  </si>
+  <si>
+    <t>20:42:39~21:25:33|07:57:17~13:53:59|15:07:03~22:57:12|00:18:16~07:11:29|02:41:08~14:36:32|11:47:53~19:20:39|15:20:09~17:29:00</t>
+  </si>
+  <si>
+    <t>07:57:17~13:53:59|15:07:03~22:57:12|00:18:16~07:11:29|02:41:08~14:36:32|11:47:53~19:20:39|15:20:09~17:29:00|14:17:52~16:53:46</t>
+  </si>
+  <si>
+    <t>15:07:03~22:57:12|00:18:16~07:11:29|02:41:08~14:36:32|11:47:53~19:20:39|15:20:09~17:29:00|14:17:52~16:53:46|07:55:53~14:40:24</t>
+  </si>
+  <si>
+    <t>00:18:16~07:11:29|02:41:08~14:36:32|11:47:53~19:20:39|15:20:09~17:29:00|14:17:52~16:53:46|07:55:53~14:40:24|13:48:16~22:11:15</t>
+  </si>
+  <si>
+    <t>02:41:08~14:36:32|11:47:53~19:20:39|15:20:09~17:29:00|14:17:52~16:53:46|07:55:53~14:40:24|13:48:16~22:11:15|00:23:36~02:37:40</t>
+  </si>
+  <si>
+    <t>11:47:53~19:20:39|15:20:09~17:29:00|14:17:52~16:53:46|07:55:53~14:40:24|13:48:16~22:11:15|00:23:36~02:37:40|12:37:43~21:43:23</t>
+  </si>
+  <si>
+    <t>15:20:09~17:29:00|14:17:52~16:53:46|07:55:53~14:40:24|13:48:16~22:11:15|00:23:36~02:37:40|12:37:43~21:43:23|00:12:12~08:55:13</t>
+  </si>
+  <si>
+    <t>14:17:52~16:53:46|07:55:53~14:40:24|13:48:16~22:11:15|00:23:36~02:37:40|12:37:43~21:43:23|00:12:12~08:55:13|05:45:55~20:40:25</t>
+  </si>
+  <si>
+    <t>07:55:53~14:40:24|13:48:16~22:11:15|00:23:36~02:37:40|12:37:43~21:43:23|00:12:12~08:55:13|05:45:55~20:40:25|09:18:59~17:40:49</t>
+  </si>
+  <si>
+    <t>13:48:16~22:11:15|00:23:36~02:37:40|12:37:43~21:43:23|00:12:12~08:55:13|05:45:55~20:40:25|09:18:59~17:40:49|03:06:57~21:17:10</t>
+  </si>
+  <si>
+    <t>00:23:36~02:37:40|12:37:43~21:43:23|00:12:12~08:55:13|05:45:55~20:40:25|09:18:59~17:40:49|03:06:57~21:17:10|02:18:53~18:57:56</t>
+  </si>
+  <si>
+    <t>12:37:43~21:43:23|00:12:12~08:55:13|05:45:55~20:40:25|09:18:59~17:40:49|03:06:57~21:17:10|02:18:53~18:57:56|03:49:49~06:48:16</t>
+  </si>
+  <si>
+    <t>00:12:12~08:55:13|05:45:55~20:40:25|09:18:59~17:40:49|03:06:57~21:17:10|02:18:53~18:57:56|03:49:49~06:48:16|20:58:39~22:27:23</t>
+  </si>
+  <si>
+    <t>05:45:55~20:40:25|09:18:59~17:40:49|03:06:57~21:17:10|02:18:53~18:57:56|03:49:49~06:48:16|20:58:39~22:27:23|04:17:31~15:05:58</t>
+  </si>
+  <si>
+    <t>09:18:59~17:40:49|03:06:57~21:17:10|02:18:53~18:57:56|03:49:49~06:48:16|20:58:39~22:27:23|04:17:31~15:05:58|03:56:08~16:47:13</t>
+  </si>
+  <si>
+    <t>03:06:57~21:17:10|02:18:53~18:57:56|03:49:49~06:48:16|20:58:39~22:27:23|04:17:31~15:05:58|03:56:08~16:47:13|06:44:38~17:11:54</t>
+  </si>
+  <si>
+    <t>02:18:53~18:57:56|03:49:49~06:48:16|20:58:39~22:27:23|04:17:31~15:05:58|03:56:08~16:47:13|06:44:38~17:11:54|09:57:38~23:11:38</t>
+  </si>
+  <si>
+    <t>03:49:49~06:48:16|20:58:39~22:27:23|04:17:31~15:05:58|03:56:08~16:47:13|06:44:38~17:11:54|09:57:38~23:11:38|11:37:32~16:10:30</t>
+  </si>
+  <si>
+    <t>20:58:39~22:27:23|04:17:31~15:05:58|03:56:08~16:47:13|06:44:38~17:11:54|09:57:38~23:11:38|11:37:32~16:10:30|01:38:23~21:35:49</t>
+  </si>
+  <si>
+    <t>04:17:31~15:05:58|03:56:08~16:47:13|06:44:38~17:11:54|09:57:38~23:11:38|11:37:32~16:10:30|01:38:23~21:35:49|03:44:18~08:42:19</t>
+  </si>
+  <si>
+    <t>03:56:08~16:47:13|06:44:38~17:11:54|09:57:38~23:11:38|11:37:32~16:10:30|01:38:23~21:35:49|03:44:18~08:42:19|10:52:51~13:04:51</t>
+  </si>
+  <si>
+    <t>06:44:38~17:11:54|09:57:38~23:11:38|11:37:32~16:10:30|01:38:23~21:35:49|03:44:18~08:42:19|10:52:51~13:04:51|07:49:04~19:09:24</t>
+  </si>
+  <si>
+    <t>09:57:38~23:11:38|11:37:32~16:10:30|01:38:23~21:35:49|03:44:18~08:42:19|10:52:51~13:04:51|07:49:04~19:09:24|09:40:12~19:10:06</t>
+  </si>
+  <si>
+    <t>11:37:32~16:10:30|01:38:23~21:35:49|03:44:18~08:42:19|10:52:51~13:04:51|07:49:04~19:09:24|09:40:12~19:10:06|05:20:09~09:59:12</t>
+  </si>
+  <si>
+    <t>luong</t>
+  </si>
+  <si>
+    <t>268890|537780|1344450|2021/10/11 20:41:58</t>
+  </si>
+  <si>
+    <t>105637|211274|528185|2022/01/24 13:17:24</t>
+  </si>
+  <si>
+    <t>139831|279662|699155|2020/03/26 21:59:19</t>
+  </si>
+  <si>
+    <t>143711|287422|718555|2021/04/01 06:17:20</t>
+  </si>
+  <si>
+    <t>161799|323598|808995|2021/01/25 04:51:40</t>
+  </si>
+  <si>
+    <t>487177|974354|2435885|2022/03/04 14:48:18</t>
+  </si>
+  <si>
+    <t>468894|937788|2344470|2021/03/11 06:25:10</t>
+  </si>
+  <si>
+    <t>251660|503320|1258300|2021/10/24 19:03:15</t>
+  </si>
+  <si>
+    <t>498233|996466|2491165|2022/01/30 16:39:19</t>
+  </si>
+  <si>
+    <t>442936|885872|2214680|2022/08/31 05:42:49</t>
+  </si>
+  <si>
+    <t>316135|632270|1580675|2020/04/22 02:07:10</t>
+  </si>
+  <si>
+    <t>243498|486996|1217490|2022/07/31 16:18:25</t>
+  </si>
+  <si>
+    <t>264547|529094|1322735|2021/01/29 08:27:18</t>
+  </si>
+  <si>
+    <t>235495|470990|1177475|2022/04/10 17:07:10</t>
+  </si>
+  <si>
+    <t>294807|589614|1474035|2020/07/26 21:50:28</t>
+  </si>
+  <si>
+    <t>493040|986080|2465200|2021/12/17 00:15:58</t>
+  </si>
+  <si>
+    <t>381857|763714|1909285|2022/03/10 12:03:12</t>
+  </si>
+  <si>
+    <t>394319|788638|1971595|2021/07/15 08:50:43</t>
+  </si>
+  <si>
+    <t>400773|801546|2003865|2022/03/27 15:03:58</t>
+  </si>
+  <si>
+    <t>259362|518724|1296810|2021/10/22 11:45:20</t>
+  </si>
+  <si>
+    <t>219104|438208|1095520|2020/11/19 13:35:17</t>
+  </si>
+  <si>
+    <t>155239|310478|776195|2020/08/31 21:36:30</t>
+  </si>
+  <si>
+    <t>202594|405188|1012970|2020/10/20 00:31:40</t>
+  </si>
+  <si>
+    <t>295216|590432|1476080|2021/07/22 19:04:42</t>
+  </si>
+  <si>
+    <t>350732|701464|1753660|2022/06/13 11:39:53</t>
+  </si>
+  <si>
+    <t>219298|438596|1096490|2020/11/18 07:14:43</t>
+  </si>
+  <si>
+    <t>488408|976816|2442040|2021/02/27 23:48:09</t>
+  </si>
+  <si>
+    <t>100294|200588|501470|2020/11/19 07:54:55</t>
+  </si>
+  <si>
+    <t>140564|281128|702820|2020/06/02 10:34:07</t>
+  </si>
+  <si>
+    <t>219542|439084|1097710|2021/09/14 09:34:23</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B5E028-7850-4896-8815-10477EF96103}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,9 +1244,10 @@
     <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -1088,8 +1275,14 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1117,8 +1310,14 @@
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1146,8 +1345,14 @@
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1175,8 +1380,14 @@
       <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1204,8 +1415,14 @@
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1233,8 +1450,14 @@
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1262,8 +1485,14 @@
       <c r="I7" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1291,8 +1520,14 @@
       <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1320,8 +1555,14 @@
       <c r="I9" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1349,8 +1590,14 @@
       <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1378,8 +1625,14 @@
       <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1407,8 +1660,14 @@
       <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1436,8 +1695,14 @@
       <c r="I13" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1465,8 +1730,14 @@
       <c r="I14" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1494,8 +1765,14 @@
       <c r="I15" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1523,8 +1800,14 @@
       <c r="I16" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1552,8 +1835,14 @@
       <c r="I17" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1581,8 +1870,14 @@
       <c r="I18" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1610,8 +1905,14 @@
       <c r="I19" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1639,8 +1940,14 @@
       <c r="I20" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1668,8 +1975,14 @@
       <c r="I21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1697,8 +2010,14 @@
       <c r="I22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1726,8 +2045,14 @@
       <c r="I23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1755,8 +2080,14 @@
       <c r="I24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1784,8 +2115,14 @@
       <c r="I25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1813,8 +2150,14 @@
       <c r="I26" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1842,8 +2185,14 @@
       <c r="I27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1871,8 +2220,14 @@
       <c r="I28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1900,8 +2255,14 @@
       <c r="I29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1929,8 +2290,14 @@
       <c r="I30" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1957,6 +2324,12 @@
       </c>
       <c r="I31" t="s">
         <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
